--- a/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
@@ -429,42 +429,72 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>D Green</t>
+          <t>Ford Tourneo Custom</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>ZEEKR 001</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>MAXUS MIFA 7</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>VW Passat</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Škoda Kodiaq</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>BMW X2</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Default Red</t>
+          <t>Renault Rafale HEV</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Mercedes-Benz E-Class</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,232 +424,157 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Car Name</t>
+          <t>Sheet Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Ford Tourneo Custom</t>
+          <t>D Green</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ZEEKR 001</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MAXUS MIFA 7</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>VW Passat</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Škoda Kodiaq</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>BMW X2</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Renault Rafale HEV</t>
+          <t>Default Red</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Mercedes-Benz E-Class</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Suzuki Swift</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Dacia Duster</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Renault Espace</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Toyota C-HR</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Honda CR-V</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>NIO EL6</t>
+          <t>Blue</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D Green</t>
+          <t>Ford Tourneo Custom</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>8.264462809917356</v>
       </c>
       <c r="C2" t="n">
-        <v>5.952380952380952</v>
+        <v>13.22314049586777</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>35.9504132231405</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>19.00826446280992</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.198347107438017</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.264462809917356</v>
       </c>
       <c r="H2" t="n">
-        <v>6.018518518518518</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.725321888412018</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
+        <v>3.305785123966942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>ZEEKR 001</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.22314049586777</v>
+        <v>5.952380952380952</v>
       </c>
       <c r="C3" t="n">
         <v>27.77777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>23.04347826086957</v>
+        <v>19.84126984126984</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5</v>
+        <v>12.3015873015873</v>
       </c>
       <c r="F3" t="n">
-        <v>15.94827586206897</v>
+        <v>13.49206349206349</v>
       </c>
       <c r="G3" t="n">
-        <v>55.81395348837209</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>19.04761904761905</v>
+        <v>3.968253968253968</v>
       </c>
       <c r="I3" t="n">
-        <v>60.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19.81981981981982</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.04761904761905</v>
-      </c>
-      <c r="M3" t="n">
-        <v>26.78571428571428</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21.88841201716738</v>
-      </c>
-      <c r="O3" t="n">
-        <v>38.75968992248063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>MAXUS MIFA 7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.9504132231405</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.84126984126984</v>
+        <v>23.04347826086957</v>
       </c>
       <c r="D4" t="n">
         <v>47.39130434782609</v>
       </c>
       <c r="E4" t="n">
-        <v>43.53448275862069</v>
+        <v>7.82608695652174</v>
       </c>
       <c r="F4" t="n">
-        <v>62.5</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="G4" t="n">
-        <v>20.34883720930233</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="H4" t="n">
-        <v>25.59523809523809</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="I4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>31.48148148148148</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40.54054054054054</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25.59523809523809</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42.91845493562232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27.51937984496124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>VW Passat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.00826446280992</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3015873015873</v>
+        <v>12.5</v>
       </c>
       <c r="D5" t="n">
-        <v>7.82608695652174</v>
+        <v>43.53448275862069</v>
       </c>
       <c r="E5" t="n">
         <v>18.96551724137931</v>
@@ -658,47 +583,29 @@
         <v>8.620689655172415</v>
       </c>
       <c r="G5" t="n">
-        <v>11.62790697674419</v>
+        <v>11.20689655172414</v>
       </c>
       <c r="H5" t="n">
-        <v>30.95238095238095</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15.27777777777778</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.76576576576577</v>
-      </c>
-      <c r="L5" t="n">
-        <v>30.95238095238095</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8.928571428571429</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11.58798283261803</v>
-      </c>
-      <c r="O5" t="n">
-        <v>12.01550387596899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Škoda Kodiaq</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.198347107438017</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13.49206349206349</v>
+        <v>15.94827586206897</v>
       </c>
       <c r="D6" t="n">
-        <v>9.565217391304348</v>
+        <v>62.5</v>
       </c>
       <c r="E6" t="n">
         <v>8.620689655172415</v>
@@ -707,177 +614,282 @@
         <v>4.310344827586207</v>
       </c>
       <c r="G6" t="n">
-        <v>4.651162790697674</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="H6" t="n">
-        <v>10.11904761904762</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.851851851851852</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.207207207207207</v>
-      </c>
-      <c r="L6" t="n">
-        <v>10.11904761904762</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9.821428571428571</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.437768240343347</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.426356589147287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>BMW X2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.264462809917356</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>16.66666666666667</v>
+        <v>55.81395348837209</v>
       </c>
       <c r="D7" t="n">
-        <v>6.086956521739131</v>
+        <v>20.34883720930233</v>
       </c>
       <c r="E7" t="n">
-        <v>11.20689655172414</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="F7" t="n">
-        <v>3.448275862068965</v>
+        <v>4.651162790697674</v>
       </c>
       <c r="G7" t="n">
         <v>5.232558139534884</v>
       </c>
       <c r="H7" t="n">
-        <v>10.71428571428571</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="I7" t="n">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.16216216216216</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11.60714285714286</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.150214592274678</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12.4031007751938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Default Red</t>
+          <t>Renault Rafale HEV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.785123966942149</v>
+        <v>6.018518518518518</v>
       </c>
       <c r="C8" t="n">
-        <v>3.968253968253968</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="D8" t="n">
-        <v>6.086956521739131</v>
+        <v>25.59523809523809</v>
       </c>
       <c r="E8" t="n">
-        <v>5.172413793103448</v>
+        <v>30.95238095238095</v>
       </c>
       <c r="F8" t="n">
-        <v>5.172413793103448</v>
+        <v>10.11904761904762</v>
       </c>
       <c r="G8" t="n">
-        <v>2.325581395348837</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H8" t="n">
         <v>3.571428571428571</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.25925925925926</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.504504504504505</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.571428571428571</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.291845493562231</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3.875968992248062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305785123966942</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
         <v>1.2</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Suzuki Swift</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31.48148148148148</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.27777777777778</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.851851851851852</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.25925925925926</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dacia Duster</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.725321888412018</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.81981981981982</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40.54054054054054</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15.76576576576577</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.207207207207207</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.16216216216216</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.504504504504505</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault Espace</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19.04761904761905</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.59523809523809</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30.95238095238095</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.11904761904762</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Toyota C-HR</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>26.78571428571428</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.928571428571429</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.821428571428571</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.60714285714286</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Honda CR-V</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>21.88841201716738</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.91845493562232</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.58798283261803</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.437768240343347</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.150214592274678</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.291845493562231</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>38.75968992248063</v>
+      </c>
+      <c r="D15" t="n">
+        <v>27.51937984496124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.01550387596899</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.426356589147287</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.4031007751938</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.875968992248062</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sheet Name</t>
+          <t>Car Names</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
@@ -420,6 +420,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2024_cars_combined.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
